--- a/Departments/DMED.xlsx
+++ b/Departments/DMED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFECCAA-2BD6-47BB-8FE0-8EEE339CA249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE2B9E-D047-4496-B416-A1E22E17B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBEFBFF0-2142-4E28-9648-77CE296AED89}"/>
+    <workbookView xWindow="2080" yWindow="2080" windowWidth="14400" windowHeight="7360" xr2:uid="{EBEFBFF0-2142-4E28-9648-77CE296AED89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -154,6 +148,12 @@
   </si>
   <si>
     <t>DMED 550 - Directed Studies in Digital Media</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I12"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -527,314 +527,314 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/DMED.xlsx
+++ b/Departments/DMED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE2B9E-D047-4496-B416-A1E22E17B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B11AB8-6A56-4A20-BCB2-70ACA0B69C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2080" windowWidth="14400" windowHeight="7360" xr2:uid="{EBEFBFF0-2142-4E28-9648-77CE296AED89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EBEFBFF0-2142-4E28-9648-77CE296AED89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="47">
   <si>
     <t>Course_Code</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>DMED560</t>
+  </si>
+  <si>
+    <t>DMED 560 - Production Team Dynamics</t>
+  </si>
+  <si>
+    <t>DMED561</t>
+  </si>
+  <si>
+    <t>DMED 561 - Pitching for Digital Media Professionals I</t>
+  </si>
+  <si>
+    <t>DMED562</t>
+  </si>
+  <si>
+    <t>DMED 562 - Pitching for Digital Media Professionals II</t>
+  </si>
+  <si>
+    <t>DMED563</t>
+  </si>
+  <si>
+    <t>DMED 563 - Multi-Platform Media</t>
   </si>
 </sst>
 </file>
@@ -505,13 +529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2204DB1-8F26-4B6D-89FE-130F93D26474}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -544,7 +571,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -553,7 +580,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -570,7 +597,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -579,7 +606,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -596,7 +623,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -605,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -622,7 +649,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -631,10 +658,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -644,14 +671,11 @@
       </c>
       <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -660,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -673,14 +697,11 @@
       </c>
       <c r="H6" t="s">
         <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -689,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -702,11 +723,14 @@
       </c>
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -715,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -728,11 +752,14 @@
       </c>
       <c r="H8" t="s">
         <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -741,10 +768,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -754,27 +781,24 @@
       </c>
       <c r="H9" t="s">
         <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
@@ -783,6 +807,9 @@
       </c>
       <c r="H10" t="s">
         <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -834,6 +861,110 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
         <v>13</v>
       </c>
     </row>
